--- a/url_data/oil_data/combine.xlsx
+++ b/url_data/oil_data/combine.xlsx
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
